--- a/我的创作/股票/技术投资/SEAP交易系统/牛股档案库.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/牛股档案库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="技术面" sheetId="1" r:id="rId1"/>
@@ -15,18 +15,782 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
+  <si>
+    <t>股票代码</t>
+  </si>
+  <si>
+    <t>股票简称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本每(元)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2021.09.30</t>
+    </r>
+  </si>
+  <si>
+    <t>行业</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前基底处于上升趋势的位置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(即处于第几个基底)</t>
+    </r>
+  </si>
+  <si>
+    <t>趋势</t>
+  </si>
+  <si>
+    <t>波动收缩幅度</t>
+  </si>
+  <si>
+    <t>成交量行为</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="FZShuSong-Z01"/>
+        <charset val="134"/>
+      </rPr>
+      <t>价格行为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="FZShuSong-Z01"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="FZShuSong-Z01"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(得分应大于60%)</t>
+    </r>
+  </si>
+  <si>
+    <t>结论</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日均线</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日均线</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日均线</t>
+    </r>
+  </si>
+  <si>
+    <t>各均线斜率是否朝上</t>
+  </si>
+  <si>
+    <t>当前股价</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周内最低点</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF161616"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF161616"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周内最高点</t>
+    </r>
+  </si>
+  <si>
+    <t>最高点前8周收盘价</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前股价相对于最低点百分比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(至少高出25%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前股价相对于最高点百分比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(25%内最好)</t>
+    </r>
+  </si>
+  <si>
+    <t>最高点前8周股价相对于最高点百分比</t>
+  </si>
+  <si>
+    <t>技术足迹</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不同收盘表现时交易量情况</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(好的收盘时，交易量是否增大，坏的收盘时，交易量是否萎缩)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成交量收缩情况</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(最后的价格收缩期间的成交量应低于50天的平均水平且有一到两天交易量极低)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支撑位和压力位是否同步升高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(40%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否有网球行为出现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(40%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上涨天数是否大于下跌天数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(20%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支撑位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阻力位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支撑位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阻力位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支撑位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阻力位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支撑位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阻力位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支撑位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阻力位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支撑位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>时间周期</t>
+  </si>
+  <si>
+    <t>收缩量1</t>
+  </si>
+  <si>
+    <t>收缩量2</t>
+  </si>
+  <si>
+    <t>收缩量3</t>
+  </si>
+  <si>
+    <t>收缩量4</t>
+  </si>
+  <si>
+    <t>收缩量5</t>
+  </si>
+  <si>
+    <t>收缩量6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收缩数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(至少大于3T)</t>
+    </r>
+  </si>
+  <si>
+    <t>002932.SZ</t>
+  </si>
+  <si>
+    <t>明德生物</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>18w</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不宜入场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（股价已处于第6个基底）</t>
+    </r>
+  </si>
+  <si>
+    <t>600976.SH</t>
+  </si>
+  <si>
+    <t>健民集团</t>
+  </si>
+  <si>
+    <t>中药</t>
+  </si>
+  <si>
+    <t>20w</t>
+  </si>
+  <si>
+    <t>可以入场</t>
+  </si>
   <si>
     <t>分析结果编码</t>
-  </si>
-  <si>
-    <t>股票代码</t>
-  </si>
-  <si>
-    <t>股票简称</t>
-  </si>
-  <si>
-    <t>行业</t>
   </si>
   <si>
     <t>资产负债率</t>
@@ -53,9 +817,6 @@
 (至少大于17%)</t>
   </si>
   <si>
-    <t>更新时间</t>
-  </si>
-  <si>
     <r>
       <t>最近三季度
 (</t>
@@ -224,12 +985,6 @@
     <t>002932</t>
   </si>
   <si>
-    <t>明德生物</t>
-  </si>
-  <si>
-    <t>医疗器械</t>
-  </si>
-  <si>
     <t>数据不全</t>
   </si>
   <si>
@@ -285,9 +1040,6 @@
     <t>同仁堂</t>
   </si>
   <si>
-    <t>中药</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -371,10 +1123,77 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>先增加后减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（由62.96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先增加到66.27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再减少到63.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
     <t>JBM_000011</t>
-  </si>
-  <si>
-    <t>健民集团</t>
   </si>
   <si>
     <r>
@@ -457,6 +1276,76 @@
         <charset val="134"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>先增加后减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39.27%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先增加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43.12%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再减少到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39.23%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
   </si>
   <si>
@@ -621,7 +1510,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -679,6 +1568,74 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF152122"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF152122"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF152122"/>
+      <name val="Helvetica Neue Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="FZShuSong-Z01"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF161616"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF161616"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -831,8 +1788,14 @@
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF161616"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,6 +1835,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,152 +2157,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1531,6 +2506,114 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1854,14 +2937,522 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="13.3928571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.1517857142857" customWidth="1"/>
+    <col min="10" max="10" width="11.3035714285714" customWidth="1"/>
+    <col min="14" max="14" width="11.0089285714286" customWidth="1"/>
+    <col min="41" max="41" width="18.4464285714286" customWidth="1"/>
+    <col min="42" max="42" width="13.5357142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="94"/>
+      <c r="AL1" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM1" s="94"/>
+      <c r="AN1" s="94"/>
+      <c r="AO1" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP1" s="99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK2" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL2" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM2" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN2" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="99"/>
+    </row>
+    <row r="3" ht="58" spans="1:42">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF3" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH3" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI3" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="98"/>
+      <c r="AP3" s="99"/>
+    </row>
+    <row r="4" ht="87" spans="1:42">
+      <c r="A4" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="72">
+        <v>10.68</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="73">
+        <v>5</v>
+      </c>
+      <c r="F4" s="78">
+        <v>64.6</v>
+      </c>
+      <c r="G4" s="78">
+        <v>66.59</v>
+      </c>
+      <c r="H4" s="78">
+        <v>70.61</v>
+      </c>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84">
+        <v>73.4</v>
+      </c>
+      <c r="K4" s="78">
+        <v>41.79</v>
+      </c>
+      <c r="L4" s="85">
+        <v>90.29</v>
+      </c>
+      <c r="M4" s="84">
+        <v>64.66</v>
+      </c>
+      <c r="N4" s="89">
+        <f>(J4-K4)/K4</f>
+        <v>0.756401052883465</v>
+      </c>
+      <c r="O4" s="89">
+        <f>(L4-J4)/L4</f>
+        <v>0.187063905194374</v>
+      </c>
+      <c r="P4" s="89">
+        <f>(L4-M4)/M4</f>
+        <v>0.396381070213424</v>
+      </c>
+      <c r="Q4" s="84">
+        <v>60.05</v>
+      </c>
+      <c r="R4" s="84">
+        <v>74.75</v>
+      </c>
+      <c r="S4" s="84">
+        <v>65.5</v>
+      </c>
+      <c r="T4" s="84">
+        <v>77.98</v>
+      </c>
+      <c r="U4" s="84">
+        <v>70.4</v>
+      </c>
+      <c r="V4" s="84">
+        <v>77.77</v>
+      </c>
+      <c r="W4" s="84">
+        <v>73.27</v>
+      </c>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="89">
+        <f>(L4-Q4)/L4</f>
+        <v>0.33492081072101</v>
+      </c>
+      <c r="AD4" s="89">
+        <f>(R4-S4)/R4</f>
+        <v>0.123745819397993</v>
+      </c>
+      <c r="AE4" s="89">
+        <f>(T4-U4)/T4</f>
+        <v>0.0972044113875352</v>
+      </c>
+      <c r="AF4" s="93">
+        <f>(V4-W4)/V4</f>
+        <v>0.0578629291500579</v>
+      </c>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ4" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL4" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM4" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN4" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO4" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP4" s="101">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="5" ht="29" spans="1:42">
+      <c r="A5" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="74">
+        <v>1.69</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80">
+        <v>44.14</v>
+      </c>
+      <c r="G5" s="80">
+        <v>46.62</v>
+      </c>
+      <c r="H5" s="80">
+        <v>53.22</v>
+      </c>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80">
+        <v>64.8</v>
+      </c>
+      <c r="K5" s="80">
+        <v>23.91</v>
+      </c>
+      <c r="L5" s="86">
+        <v>64.99</v>
+      </c>
+      <c r="M5" s="86">
+        <v>40.73</v>
+      </c>
+      <c r="N5" s="89">
+        <f>(J5-K5)/K5</f>
+        <v>1.71016311166876</v>
+      </c>
+      <c r="O5" s="89">
+        <f>(L5-J5)/L5</f>
+        <v>0.0029235266964148</v>
+      </c>
+      <c r="P5" s="89">
+        <f>(L5-M5)/M5</f>
+        <v>0.595629756935919</v>
+      </c>
+      <c r="Q5" s="86">
+        <v>40</v>
+      </c>
+      <c r="R5" s="86">
+        <v>52.68</v>
+      </c>
+      <c r="S5" s="86">
+        <v>41.62</v>
+      </c>
+      <c r="T5" s="86">
+        <v>58.1</v>
+      </c>
+      <c r="U5" s="86">
+        <v>49.46</v>
+      </c>
+      <c r="V5" s="86">
+        <v>64.68</v>
+      </c>
+      <c r="W5" s="86">
+        <v>59.29</v>
+      </c>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC5" s="89">
+        <f>(L5-Q5)/L5</f>
+        <v>0.384520695491614</v>
+      </c>
+      <c r="AD5" s="89">
+        <f>(R5-S5)/R5</f>
+        <v>0.209946848899013</v>
+      </c>
+      <c r="AE5" s="89">
+        <f>(T5-U5)/T5</f>
+        <v>0.148709122203098</v>
+      </c>
+      <c r="AF5" s="89">
+        <f>(V5-W5)/V5</f>
+        <v>0.0833333333333334</v>
+      </c>
+      <c r="AG5" s="89" t="e">
+        <f>(X5-Y5)/X5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH5" s="89"/>
+      <c r="AI5" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ5" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK5" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL5" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM5" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN5" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO5" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP5" s="103">
+        <v>44547</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="Q2:AI2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO1:AO3"/>
+    <mergeCell ref="AP1:AP3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1872,8 +3463,12 @@
   <sheetPr/>
   <dimension ref="A1:BN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BM6" sqref="BM6"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1896,7 +3491,7 @@
     <col min="42" max="42" width="11.8928571428571" customWidth="1"/>
     <col min="43" max="43" width="12.0446428571429" customWidth="1"/>
     <col min="57" max="57" width="16.6607142857143" customWidth="1"/>
-    <col min="58" max="58" width="11.5982142857143" customWidth="1"/>
+    <col min="58" max="58" width="17.4107142857143" customWidth="1"/>
     <col min="64" max="64" width="12.6428571428571" customWidth="1"/>
     <col min="65" max="65" width="22.6160714285714" customWidth="1"/>
     <col min="66" max="66" width="11.0089285714286" customWidth="1"/>
@@ -1904,25 +3499,25 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:66">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -1942,7 +3537,7 @@
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
       <c r="Y1" s="33" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="Z1" s="33"/>
       <c r="AA1" s="33"/>
@@ -1962,13 +3557,13 @@
       <c r="AO1" s="33"/>
       <c r="AP1" s="33"/>
       <c r="AQ1" s="42" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="AR1" s="34"/>
       <c r="AS1" s="34"/>
       <c r="AT1" s="34"/>
       <c r="AU1" s="47" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="47"/>
       <c r="AW1" s="47"/>
@@ -1986,12 +3581,12 @@
       <c r="BI1" s="47"/>
       <c r="BJ1" s="47"/>
       <c r="BK1" s="18" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="BL1" s="9"/>
       <c r="BM1" s="7"/>
       <c r="BN1" s="64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="46" customHeight="1" spans="1:66">
@@ -2002,12 +3597,12 @@
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
       <c r="G2" s="10" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="18" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
@@ -2024,12 +3619,12 @@
       <c r="W2" s="18"/>
       <c r="X2" s="26"/>
       <c r="Y2" s="10" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="Z2" s="11"/>
       <c r="AA2" s="11"/>
       <c r="AB2" s="34" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="AC2" s="33"/>
       <c r="AD2" s="33"/>
@@ -2050,16 +3645,16 @@
       <c r="AS2" s="34"/>
       <c r="AT2" s="34"/>
       <c r="AU2" s="48" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="AV2" s="48" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="AW2" s="51" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="AX2" s="52" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="AY2" s="53"/>
       <c r="AZ2" s="53"/>
@@ -2067,7 +3662,7 @@
       <c r="BB2" s="53"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
@@ -2078,7 +3673,7 @@
       <c r="BK2" s="9"/>
       <c r="BL2" s="9"/>
       <c r="BM2" s="1" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="BN2" s="64"/>
     </row>
@@ -2090,188 +3685,188 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
       <c r="G3" s="11" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="V3" s="27" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="W3" s="28" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="AB3" s="35" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AC3" s="35" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AD3" s="33" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="AF3" s="35" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AG3" s="35" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AH3" s="35" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="AI3" s="35" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="AJ3" s="35" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AK3" s="35" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AL3" s="35" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="AM3" s="35" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="AN3" s="27" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="AO3" s="28" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="AP3" s="28" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="AQ3" s="42" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="AR3" s="34" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="AS3" s="48" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="AT3" s="48" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AU3" s="48"/>
       <c r="AV3" s="48"/>
       <c r="AW3" s="51"/>
       <c r="AX3" s="9" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="AY3" s="9" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="AZ3" s="18" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="BA3" s="53" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="BB3" s="53" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="BD3" s="57" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="BE3" s="57" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="BF3" s="61" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="BG3" s="57" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="BK3" s="8" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="BL3" s="9" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="BM3" s="1"/>
       <c r="BN3" s="64"/>
     </row>
     <row r="4" ht="90" customHeight="1" spans="1:66">
       <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>51</v>
+        <v>105</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>106</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E4" s="12">
         <v>0.1612</v>
@@ -2377,7 +3972,7 @@
         <v>3.4657</v>
       </c>
       <c r="AN4" s="41" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="AO4" s="43">
         <f>(AF4+AG4+AH4+AI4)/4</f>
@@ -2427,13 +4022,13 @@
         <v>1</v>
       </c>
       <c r="BE4" s="59" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="BF4" s="62" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="BG4" s="62" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="BH4" s="59"/>
       <c r="BI4" s="59"/>
@@ -2446,24 +4041,24 @@
         <v>9.86653956148713</v>
       </c>
       <c r="BM4" s="65" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="BN4" s="66">
         <v>44578</v>
       </c>
     </row>
-    <row r="5" ht="45" spans="1:66">
+    <row r="5" ht="60" spans="1:66">
       <c r="A5" s="3" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="B5" s="5">
         <v>600085</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E5" s="15">
         <v>0.33</v>
@@ -2542,9 +4137,11 @@
         <v>20</v>
       </c>
       <c r="BE5" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF5" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="BF5" s="63" t="s">
+        <v>115</v>
+      </c>
       <c r="BG5" s="5"/>
       <c r="BH5" s="5"/>
       <c r="BI5" s="5"/>
@@ -2561,18 +4158,18 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="6" ht="45" spans="1:66">
+    <row r="6" ht="60" spans="1:66">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="B6" s="5">
         <v>600976</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E6" s="15">
         <v>0.4423</v>
@@ -2651,9 +4248,11 @@
         <v>15</v>
       </c>
       <c r="BE6" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="BF6" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="BF6" s="63" t="s">
+        <v>118</v>
+      </c>
       <c r="BG6" s="5"/>
       <c r="BH6" s="5"/>
       <c r="BI6" s="5"/>
@@ -2670,18 +4269,18 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="7" ht="132" spans="1:66">
+    <row r="7" ht="88" spans="1:66">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="B7" s="5">
         <v>603867</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="E7" s="15">
         <v>0.3881</v>
@@ -2760,10 +4359,10 @@
         <v>2</v>
       </c>
       <c r="BE7" s="63" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="BF7" s="62" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="BG7" s="5"/>
       <c r="BH7" s="5"/>
@@ -2777,7 +4376,7 @@
         <v>0.777934936350778</v>
       </c>
       <c r="BM7" s="67" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="BN7" s="66">
         <v>44578</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/牛股档案库.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/牛股档案库.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
   <si>
     <t>股票代码</t>
   </si>
@@ -23,70 +23,15 @@
     <t>股票简称</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基本每(元)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2021.09.30</t>
-    </r>
+    <t>基本每(元)
+2021.09.30</t>
   </si>
   <si>
     <t>行业</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前基底处于上升趋势的位置</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(即处于第几个基底)</t>
-    </r>
+    <t>当前基底处于上升趋势的位置
+(即处于第几个基底)</t>
   </si>
   <si>
     <t>趋势</t>
@@ -98,34 +43,8 @@
     <t>成交量行为</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="FZShuSong-Z01"/>
-        <charset val="134"/>
-      </rPr>
-      <t>价格行为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="FZShuSong-Z01"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="FZShuSong-Z01"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(得分应大于60%)</t>
-    </r>
+    <t>价格行为
+(得分应大于60%)</t>
   </si>
   <si>
     <t>结论</t>
@@ -134,64 +53,13 @@
     <t>更新时间</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日均线</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日均线</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日均线</t>
-    </r>
+    <t>200日均线</t>
+  </si>
+  <si>
+    <t>150日均线</t>
+  </si>
+  <si>
+    <t>50日均线</t>
   </si>
   <si>
     <t>各均线斜率是否朝上</t>
@@ -200,107 +68,21 @@
     <t>当前股价</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周内最低点</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF161616"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF161616"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周内最高点</t>
-    </r>
+    <t>52周内最低点</t>
+  </si>
+  <si>
+    <t>52周内最高点</t>
   </si>
   <si>
     <t>最高点前8周收盘价</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前股价相对于最低点百分比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(至少高出25%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前股价相对于最高点百分比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(25%内最好)</t>
-    </r>
+    <t>当前股价相对于最低点百分比
+(至少高出25%)</t>
+  </si>
+  <si>
+    <t>当前股价相对于最高点百分比
+(25%内最好)</t>
   </si>
   <si>
     <t>最高点前8周股价相对于最高点百分比</t>
@@ -309,374 +91,60 @@
     <t>技术足迹</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不同收盘表现时交易量情况</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(好的收盘时，交易量是否增大，坏的收盘时，交易量是否萎缩)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成交量收缩情况</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(最后的价格收缩期间的成交量应低于50天的平均水平且有一到两天交易量极低)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支撑位和压力位是否同步升高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(40%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是否有网球行为出现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(40%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上涨天数是否大于下跌天数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(20%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支撑位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阻力位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支撑位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阻力位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支撑位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阻力位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支撑位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阻力位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支撑位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阻力位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支撑位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
+    <t>不同收盘表现时交易量情况
+(好的收盘时，交易量是否增大，坏的收盘时，交易量是否萎缩)</t>
+  </si>
+  <si>
+    <t>成交量收缩情况
+(最后的价格收缩期间的成交量应低于50天的平均水平且有一到两天交易量极低)</t>
+  </si>
+  <si>
+    <t>波动收缩情况</t>
+  </si>
+  <si>
+    <t>支撑位和压力位是否同步升高
+(40%)</t>
+  </si>
+  <si>
+    <t>是否有网球行为出现
+(40%)</t>
+  </si>
+  <si>
+    <t>上涨天数是否大于下跌天数
+(20%)</t>
+  </si>
+  <si>
+    <t>支撑位1</t>
+  </si>
+  <si>
+    <t>阻力位2</t>
+  </si>
+  <si>
+    <t>支撑位2</t>
+  </si>
+  <si>
+    <t>阻力位3</t>
+  </si>
+  <si>
+    <t>支撑位3</t>
+  </si>
+  <si>
+    <t>阻力位4</t>
+  </si>
+  <si>
+    <t>支撑位4</t>
+  </si>
+  <si>
+    <t>阻力位5</t>
+  </si>
+  <si>
+    <t>支撑位5</t>
+  </si>
+  <si>
+    <t>阻力位6</t>
+  </si>
+  <si>
+    <t>支撑位6</t>
   </si>
   <si>
     <t>时间周期</t>
@@ -700,34 +168,8 @@
     <t>收缩量6</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>收缩数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(至少大于3T)</t>
-    </r>
+    <t>收缩数量
+(至少大于3T)</t>
   </si>
   <si>
     <t>002932.SZ</t>
@@ -748,31 +190,8 @@
     <t>是</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不宜入场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（股价已处于第6个基底）</t>
-    </r>
+    <t>不宜入场
+（股价已处于第6个基底）</t>
   </si>
   <si>
     <t>600976.SH</t>
@@ -788,6 +207,33 @@
   </si>
   <si>
     <t>可以入场</t>
+  </si>
+  <si>
+    <t>同仁堂</t>
+  </si>
+  <si>
+    <t>均向上</t>
+  </si>
+  <si>
+    <t>24w</t>
+  </si>
+  <si>
+    <t>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</t>
+  </si>
+  <si>
+    <t>新化股份</t>
+  </si>
+  <si>
+    <t>化学制品</t>
+  </si>
+  <si>
+    <t>8w</t>
+  </si>
+  <si>
+    <t>3T</t>
+  </si>
+  <si>
+    <t>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</t>
   </si>
   <si>
     <t>分析结果编码</t>
@@ -818,6 +264,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>最近三季度
 (</t>
     </r>
@@ -1037,9 +489,6 @@
     <t>JBM_000010</t>
   </si>
   <si>
-    <t>同仁堂</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1124,6 +573,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>先增加后减少</t>
     </r>
     <r>
@@ -1280,6 +734,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>先增加后减少</t>
     </r>
     <r>
@@ -1350,12 +809,6 @@
   </si>
   <si>
     <t>JBM_000016</t>
-  </si>
-  <si>
-    <t>新化股份</t>
-  </si>
-  <si>
-    <t>化学制品</t>
   </si>
   <si>
     <r>
@@ -1500,17 +953,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1571,9 +1024,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF152122"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1584,52 +1044,26 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF152122"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF152122"/>
-      <name val="方正书宋_GBK"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF152122"/>
-      <name val="Helvetica Neue Regular"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF161616"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="FZShuSong-Z01"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF161616"/>
-      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1639,11 +1073,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1653,11 +1093,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1670,22 +1117,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1700,14 +1154,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1715,38 +1161,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1759,9 +1175,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1777,6 +1200,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1785,12 +1232,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF161616"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
@@ -1840,7 +1281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1852,19 +1293,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1882,25 +1437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,97 +1461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2012,26 +1471,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2055,26 +1496,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2082,10 +1512,49 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2093,23 +1562,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2133,7 +1587,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2152,157 +1641,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2327,10 +1831,10 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2342,7 +1846,7 @@
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2351,129 +1855,126 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2495,125 +1996,149 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2937,23 +2462,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="13.3928571428571" customWidth="1"/>
     <col min="2" max="2" width="11.1517857142857" customWidth="1"/>
     <col min="10" max="10" width="11.3035714285714" customWidth="1"/>
     <col min="14" max="14" width="11.0089285714286" customWidth="1"/>
-    <col min="41" max="41" width="18.4464285714286" customWidth="1"/>
-    <col min="42" max="42" width="13.5357142857143" customWidth="1"/>
+    <col min="15" max="16" width="9.28571428571429"/>
+    <col min="29" max="31" width="9.28571428571429"/>
+    <col min="32" max="33" width="9.42857142857143"/>
+    <col min="38" max="38" width="22.0178571428571" customWidth="1"/>
+    <col min="42" max="42" width="18.4464285714286" customWidth="1"/>
+    <col min="43" max="43" width="13.5357142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
@@ -2966,65 +2499,66 @@
       <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="94" t="s">
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94" t="s">
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="101"/>
+      <c r="AM1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="98" t="s">
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="99" t="s">
+      <c r="AQ1" s="105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="A2" s="68"/>
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
       <c r="D2" s="69"/>
-      <c r="E2" s="75"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="77" t="s">
         <v>11</v>
       </c>
@@ -3034,10 +2568,10 @@
       <c r="H2" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="77" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="82" t="s">
@@ -3046,46 +2580,46 @@
       <c r="L2" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="88" t="s">
+      <c r="N2" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="81" t="s">
+      <c r="Q2" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
       <c r="AJ2" s="90" t="s">
         <v>23</v>
       </c>
       <c r="AK2" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="AL2" s="90" t="s">
+      <c r="AL2" s="102" t="s">
         <v>25</v>
       </c>
       <c r="AM2" s="90" t="s">
@@ -3094,105 +2628,109 @@
       <c r="AN2" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="AO2" s="98"/>
-      <c r="AP2" s="99"/>
+      <c r="AO2" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="105"/>
     </row>
-    <row r="3" ht="58" spans="1:42">
+    <row r="3" ht="71" spans="1:43">
       <c r="A3" s="68"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
-      <c r="E3" s="75"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="77"/>
       <c r="G3" s="77"/>
       <c r="H3" s="77"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="82"/>
       <c r="L3" s="83"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="87" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="87" t="s">
+      <c r="R3" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="87" t="s">
+      <c r="S3" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="87" t="s">
+      <c r="T3" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="87" t="s">
+      <c r="U3" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="87" t="s">
+      <c r="V3" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="87" t="s">
+      <c r="W3" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="87" t="s">
+      <c r="X3" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="87" t="s">
+      <c r="Y3" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="87" t="s">
+      <c r="Z3" s="82" t="s">
         <v>38</v>
       </c>
+      <c r="AA3" s="82" t="s">
+        <v>39</v>
+      </c>
       <c r="AB3" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="AD3" s="88" t="s">
+      <c r="AC3" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" s="88" t="s">
+      <c r="AD3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" s="88" t="s">
+      <c r="AE3" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="AG3" s="88" t="s">
+      <c r="AF3" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="AH3" s="88" t="s">
+      <c r="AG3" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="AI3" s="95" t="s">
+      <c r="AH3" s="87" t="s">
         <v>46</v>
+      </c>
+      <c r="AI3" s="96" t="s">
+        <v>47</v>
       </c>
       <c r="AJ3" s="90"/>
       <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
+      <c r="AL3" s="103"/>
       <c r="AM3" s="90"/>
       <c r="AN3" s="90"/>
-      <c r="AO3" s="98"/>
-      <c r="AP3" s="99"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="104"/>
+      <c r="AQ3" s="105"/>
     </row>
-    <row r="4" ht="87" spans="1:42">
+    <row r="4" ht="53" spans="1:43">
       <c r="A4" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="72">
+      <c r="B4" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="71">
         <v>10.68</v>
       </c>
-      <c r="D4" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="73">
+      <c r="D4" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="72">
         <v>5</v>
       </c>
       <c r="F4" s="78">
@@ -3204,230 +2742,448 @@
       <c r="H4" s="78">
         <v>70.61</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84">
+      <c r="I4" s="78"/>
+      <c r="J4" s="78">
         <v>73.4</v>
       </c>
       <c r="K4" s="78">
         <v>41.79</v>
       </c>
-      <c r="L4" s="85">
+      <c r="L4" s="84">
         <v>90.29</v>
       </c>
-      <c r="M4" s="84">
+      <c r="M4" s="78">
         <v>64.66</v>
       </c>
-      <c r="N4" s="89">
+      <c r="N4" s="88">
         <f>(J4-K4)/K4</f>
         <v>0.756401052883465</v>
       </c>
-      <c r="O4" s="89">
+      <c r="O4" s="88">
         <f>(L4-J4)/L4</f>
         <v>0.187063905194374</v>
       </c>
-      <c r="P4" s="89">
+      <c r="P4" s="88">
         <f>(L4-M4)/M4</f>
         <v>0.396381070213424</v>
       </c>
-      <c r="Q4" s="84">
+      <c r="Q4" s="78">
         <v>60.05</v>
       </c>
-      <c r="R4" s="84">
+      <c r="R4" s="78">
         <v>74.75</v>
       </c>
-      <c r="S4" s="84">
+      <c r="S4" s="78">
         <v>65.5</v>
       </c>
-      <c r="T4" s="84">
+      <c r="T4" s="78">
         <v>77.98</v>
       </c>
-      <c r="U4" s="84">
+      <c r="U4" s="78">
         <v>70.4</v>
       </c>
-      <c r="V4" s="84">
+      <c r="V4" s="78">
         <v>77.77</v>
       </c>
-      <c r="W4" s="84">
+      <c r="W4" s="78">
         <v>73.27</v>
       </c>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
       <c r="AB4" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC4" s="89">
+        <v>51</v>
+      </c>
+      <c r="AC4" s="88">
         <f>(L4-Q4)/L4</f>
         <v>0.33492081072101</v>
       </c>
-      <c r="AD4" s="89">
+      <c r="AD4" s="88">
         <f>(R4-S4)/R4</f>
         <v>0.123745819397993</v>
       </c>
-      <c r="AE4" s="89">
-        <f>(T4-U4)/T4</f>
+      <c r="AE4" s="88">
+        <f t="shared" ref="AE4:AE7" si="0">(T4-U4)/T4</f>
         <v>0.0972044113875352</v>
       </c>
       <c r="AF4" s="93">
-        <f>(V4-W4)/V4</f>
+        <f t="shared" ref="AF4:AF7" si="1">(V4-W4)/V4</f>
         <v>0.0578629291500579</v>
       </c>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
       <c r="AI4" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ4" s="91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AK4" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL4" s="91" t="s">
-        <v>52</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="AL4" s="91"/>
       <c r="AM4" s="91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AN4" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO4" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="AP4" s="101">
+      <c r="AO4" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP4" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ4" s="107">
         <v>44571</v>
       </c>
     </row>
-    <row r="5" ht="29" spans="1:42">
+    <row r="5" ht="18" spans="1:43">
       <c r="A5" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="74">
+      <c r="B5" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="71">
         <v>1.69</v>
       </c>
-      <c r="D5" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80">
+      <c r="D5" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="79">
         <v>44.14</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="79">
         <v>46.62</v>
       </c>
-      <c r="H5" s="80">
+      <c r="H5" s="79">
         <v>53.22</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80">
+      <c r="I5" s="79"/>
+      <c r="J5" s="79">
         <v>64.8</v>
       </c>
-      <c r="K5" s="80">
+      <c r="K5" s="79">
         <v>23.91</v>
       </c>
-      <c r="L5" s="86">
+      <c r="L5" s="85">
         <v>64.99</v>
       </c>
-      <c r="M5" s="86">
+      <c r="M5" s="85">
         <v>40.73</v>
       </c>
-      <c r="N5" s="89">
+      <c r="N5" s="88">
         <f>(J5-K5)/K5</f>
         <v>1.71016311166876</v>
       </c>
-      <c r="O5" s="89">
+      <c r="O5" s="88">
         <f>(L5-J5)/L5</f>
         <v>0.0029235266964148</v>
       </c>
-      <c r="P5" s="89">
+      <c r="P5" s="88">
         <f>(L5-M5)/M5</f>
         <v>0.595629756935919</v>
       </c>
-      <c r="Q5" s="86">
+      <c r="Q5" s="85">
         <v>40</v>
       </c>
-      <c r="R5" s="86">
+      <c r="R5" s="85">
         <v>52.68</v>
       </c>
-      <c r="S5" s="86">
+      <c r="S5" s="85">
         <v>41.62</v>
       </c>
-      <c r="T5" s="86">
+      <c r="T5" s="85">
         <v>58.1</v>
       </c>
-      <c r="U5" s="86">
+      <c r="U5" s="85">
         <v>49.46</v>
       </c>
-      <c r="V5" s="86">
+      <c r="V5" s="85">
         <v>64.68</v>
       </c>
-      <c r="W5" s="86">
+      <c r="W5" s="85">
         <v>59.29</v>
       </c>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC5" s="89">
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="88">
         <f>(L5-Q5)/L5</f>
         <v>0.384520695491614</v>
       </c>
-      <c r="AD5" s="89">
+      <c r="AD5" s="88">
         <f>(R5-S5)/R5</f>
         <v>0.209946848899013</v>
       </c>
-      <c r="AE5" s="89">
-        <f>(T5-U5)/T5</f>
+      <c r="AE5" s="88">
+        <f t="shared" si="0"/>
         <v>0.148709122203098</v>
       </c>
-      <c r="AF5" s="89">
-        <f>(V5-W5)/V5</f>
+      <c r="AF5" s="88">
+        <f t="shared" si="1"/>
         <v>0.0833333333333334</v>
       </c>
-      <c r="AG5" s="89" t="e">
-        <f>(X5-Y5)/X5</f>
+      <c r="AG5" s="88" t="e">
+        <f t="shared" ref="AG5:AG7" si="2">(X5-Y5)/X5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ5" s="97" t="s">
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="AK5" s="97" t="s">
+      <c r="AJ5" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK5" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN5" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO5" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP5" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ5" s="109">
+        <v>44547</v>
+      </c>
+    </row>
+    <row r="6" s="67" customFormat="1" ht="53" spans="1:43">
+      <c r="A6" s="73">
+        <v>600085</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="75">
+        <v>0.671</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="80">
+        <v>31.92</v>
+      </c>
+      <c r="G6" s="80">
+        <v>32.63</v>
+      </c>
+      <c r="H6" s="80">
+        <v>33.17</v>
+      </c>
+      <c r="I6" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="80">
+        <v>33.73</v>
+      </c>
+      <c r="K6" s="80">
+        <v>22.98</v>
+      </c>
+      <c r="L6" s="80">
+        <v>44.42</v>
+      </c>
+      <c r="M6" s="73"/>
+      <c r="N6" s="88">
+        <f>(J6-K6)/K6</f>
+        <v>0.467798085291558</v>
+      </c>
+      <c r="O6" s="88">
+        <f>(L6-J6)/L6</f>
+        <v>0.240657361548852</v>
+      </c>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="80">
+        <v>30.78</v>
+      </c>
+      <c r="R6" s="80">
+        <v>35</v>
+      </c>
+      <c r="S6" s="80">
+        <v>31.27</v>
+      </c>
+      <c r="T6" s="80">
+        <v>34.82</v>
+      </c>
+      <c r="U6" s="80">
+        <v>32.12</v>
+      </c>
+      <c r="V6" s="80">
+        <v>34.11</v>
+      </c>
+      <c r="W6" s="80">
+        <v>32.53</v>
+      </c>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC6" s="88">
+        <f>(L6-Q6)/L6</f>
+        <v>0.307068887888339</v>
+      </c>
+      <c r="AD6" s="88">
+        <f>(R6-S6)/R6</f>
+        <v>0.106571428571429</v>
+      </c>
+      <c r="AE6" s="94">
+        <f t="shared" si="0"/>
+        <v>0.077541642734061</v>
+      </c>
+      <c r="AF6" s="94">
+        <f t="shared" si="1"/>
+        <v>0.0463207270595133</v>
+      </c>
+      <c r="AG6" s="94" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="AL5" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM5" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN5" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO5" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP5" s="103">
-        <v>44547</v>
+      <c r="AJ6" s="98"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="73"/>
+      <c r="AO6" s="73"/>
+      <c r="AP6" s="73"/>
+      <c r="AQ6" s="110">
+        <v>44517</v>
+      </c>
+    </row>
+    <row r="7" ht="71" spans="1:43">
+      <c r="A7" s="73">
+        <v>603867</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="75">
+        <v>0.777</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="80">
+        <v>28.2</v>
+      </c>
+      <c r="G7" s="81">
+        <v>29.15</v>
+      </c>
+      <c r="H7" s="81">
+        <v>31.53</v>
+      </c>
+      <c r="I7" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="81">
+        <v>32.57</v>
+      </c>
+      <c r="K7" s="80">
+        <v>20.61</v>
+      </c>
+      <c r="L7" s="80">
+        <v>41.5</v>
+      </c>
+      <c r="M7" s="73"/>
+      <c r="N7" s="88">
+        <f>(J7-K7)/K7</f>
+        <v>0.58030082484231</v>
+      </c>
+      <c r="O7" s="88">
+        <f>(L7-J7)/L7</f>
+        <v>0.215180722891566</v>
+      </c>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="80">
+        <v>28.42</v>
+      </c>
+      <c r="R7" s="80">
+        <v>34.7</v>
+      </c>
+      <c r="S7" s="80">
+        <v>29</v>
+      </c>
+      <c r="T7" s="80">
+        <v>35.27</v>
+      </c>
+      <c r="U7" s="80">
+        <v>30.89</v>
+      </c>
+      <c r="V7" s="80"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC7" s="88">
+        <f>(L7-Q7)/L7</f>
+        <v>0.315180722891566</v>
+      </c>
+      <c r="AD7" s="88">
+        <f>(R7-S7)/R7</f>
+        <v>0.164265129682997</v>
+      </c>
+      <c r="AE7" s="94">
+        <f t="shared" si="0"/>
+        <v>0.124184859654097</v>
+      </c>
+      <c r="AF7" s="94" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG7" s="94" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM7" s="73"/>
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="110">
+        <v>44519</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="F1:P1"/>
     <mergeCell ref="Q1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="Q2:AI2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -3450,8 +3206,9 @@
     <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO1:AO3"/>
+    <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="AQ1:AQ3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3468,7 +3225,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -3499,7 +3256,7 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:66">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3511,13 +3268,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -3536,56 +3293,56 @@
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
-      <c r="Y1" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="47"/>
+      <c r="Y1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="46"/>
       <c r="BK1" s="18" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="BL1" s="9"/>
       <c r="BM1" s="7"/>
-      <c r="BN1" s="64" t="s">
+      <c r="BN1" s="63" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3597,12 +3354,12 @@
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
       <c r="G2" s="10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="18" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
@@ -3619,50 +3376,50 @@
       <c r="W2" s="18"/>
       <c r="X2" s="26"/>
       <c r="Y2" s="10" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Z2" s="11"/>
       <c r="AA2" s="11"/>
-      <c r="AB2" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
+      <c r="AB2" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
       <c r="AN2" s="28"/>
       <c r="AO2" s="28"/>
       <c r="AP2" s="28"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV2" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW2" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX2" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="53"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW2" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
@@ -3673,9 +3430,9 @@
       <c r="BK2" s="9"/>
       <c r="BL2" s="9"/>
       <c r="BM2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BN2" s="64"/>
+        <v>86</v>
+      </c>
+      <c r="BN2" s="63"/>
     </row>
     <row r="3" ht="64" customHeight="1" spans="1:66">
       <c r="A3" s="1"/>
@@ -3685,188 +3442,188 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
       <c r="G3" s="11" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="V3" s="27" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="W3" s="28" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC3" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD3" s="33" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="AB3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC3" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD3" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF3" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG3" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH3" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI3" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ3" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK3" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL3" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM3" s="35" t="s">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c r="AF3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG3" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI3" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL3" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM3" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="AN3" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO3" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP3" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ3" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR3" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS3" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT3" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AO3" s="28" t="s">
+      <c r="AY3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AP3" s="28" t="s">
+      <c r="AZ3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AQ3" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR3" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS3" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT3" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY3" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ3" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA3" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB3" s="53" t="s">
-        <v>95</v>
+      <c r="BA3" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB3" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BD3" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE3" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="BF3" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="BG3" s="57" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="BD3" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE3" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF3" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG3" s="56" t="s">
+        <v>110</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="BK3" s="8" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="BL3" s="9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="BM3" s="1"/>
-      <c r="BN3" s="64"/>
+      <c r="BN3" s="63"/>
     </row>
     <row r="4" ht="90" customHeight="1" spans="1:66">
       <c r="A4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>116</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="12">
         <v>0.1612</v>
@@ -3931,134 +3688,134 @@
       <c r="Y4" s="14">
         <v>13.2586</v>
       </c>
-      <c r="Z4" s="36">
+      <c r="Z4" s="35">
         <v>1.8525</v>
       </c>
-      <c r="AA4" s="36">
+      <c r="AA4" s="35">
         <v>1.9614</v>
       </c>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37">
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36">
         <v>0.2277</v>
       </c>
-      <c r="AD4" s="37">
+      <c r="AD4" s="36">
         <v>0.1645</v>
       </c>
-      <c r="AE4" s="37">
+      <c r="AE4" s="36">
         <v>5.12</v>
       </c>
-      <c r="AF4" s="39">
+      <c r="AF4" s="38">
         <v>0.3989</v>
       </c>
-      <c r="AG4" s="39">
+      <c r="AG4" s="38">
         <v>0.0213</v>
       </c>
-      <c r="AH4" s="39">
+      <c r="AH4" s="38">
         <v>0.0803</v>
       </c>
-      <c r="AI4" s="39">
+      <c r="AI4" s="38">
         <v>0.1427</v>
       </c>
-      <c r="AJ4" s="39">
+      <c r="AJ4" s="38">
         <v>-0.0694</v>
       </c>
-      <c r="AK4" s="39">
+      <c r="AK4" s="38">
         <v>2.3883</v>
       </c>
-      <c r="AL4" s="39">
+      <c r="AL4" s="38">
         <v>2.8798</v>
       </c>
-      <c r="AM4" s="40">
+      <c r="AM4" s="39">
         <v>3.4657</v>
       </c>
-      <c r="AN4" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO4" s="43">
+      <c r="AN4" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO4" s="42">
         <f>(AF4+AG4+AH4+AI4)/4</f>
         <v>0.1608</v>
       </c>
-      <c r="AP4" s="44">
+      <c r="AP4" s="43">
         <f>(AJ4+AK4+AL4+AM4)/4</f>
         <v>2.1661</v>
       </c>
-      <c r="AQ4" s="45">
+      <c r="AQ4" s="44">
         <v>43291</v>
       </c>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49">
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48">
         <v>1.049</v>
       </c>
-      <c r="AV4" s="49">
+      <c r="AV4" s="48">
         <v>0.6011</v>
       </c>
-      <c r="AW4" s="54">
+      <c r="AW4" s="53">
         <f>AV4*(1-0.33)</f>
         <v>0.402737</v>
       </c>
-      <c r="AX4" s="55">
+      <c r="AX4" s="54">
         <v>44.64</v>
       </c>
-      <c r="AY4" s="55">
+      <c r="AY4" s="54">
         <v>64.54</v>
       </c>
-      <c r="AZ4" s="55">
+      <c r="AZ4" s="54">
         <v>45.35</v>
       </c>
-      <c r="BA4" s="55">
+      <c r="BA4" s="54">
         <f>($AX4+$AY4+$AZ4)/(16+22+23)</f>
         <v>2.53327868852459</v>
       </c>
-      <c r="BB4" s="55">
+      <c r="BB4" s="54">
         <v>1.9962</v>
       </c>
-      <c r="BC4" s="58">
+      <c r="BC4" s="57">
         <f>BB4/BA4</f>
         <v>0.787990681421083</v>
       </c>
-      <c r="BD4" s="59">
+      <c r="BD4" s="58">
         <v>1</v>
       </c>
-      <c r="BE4" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="BF4" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG4" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59"/>
+      <c r="BE4" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF4" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG4" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH4" s="58"/>
+      <c r="BI4" s="58"/>
+      <c r="BJ4" s="58"/>
       <c r="BK4" s="13">
         <v>10.35</v>
       </c>
-      <c r="BL4" s="36">
+      <c r="BL4" s="35">
         <f t="shared" ref="BL4:BL7" si="0">BK4/AU4</f>
         <v>9.86653956148713</v>
       </c>
-      <c r="BM4" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN4" s="66">
+      <c r="BM4" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN4" s="65">
         <v>44578</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:66">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B5" s="5">
         <v>600085</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="15">
         <v>0.33</v>
@@ -4086,9 +3843,9 @@
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
       <c r="X5" s="29"/>
       <c r="Y5" s="17">
         <v>0.2143</v>
@@ -4099,9 +3856,9 @@
       <c r="AA5" s="17">
         <v>0.1125</v>
       </c>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
       <c r="AE5" s="15"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="15"/>
@@ -4110,37 +3867,37 @@
       <c r="AJ5" s="15"/>
       <c r="AK5" s="15"/>
       <c r="AL5" s="15"/>
-      <c r="AM5" s="37"/>
+      <c r="AM5" s="36"/>
       <c r="AN5" s="29"/>
       <c r="AO5" s="29"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="46">
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="45">
         <v>35606</v>
       </c>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50">
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49">
         <v>13.71</v>
       </c>
-      <c r="AV5" s="50">
+      <c r="AV5" s="49">
         <v>13.71</v>
       </c>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="56"/>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="56"/>
-      <c r="BB5" s="56"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="55"/>
+      <c r="BB5" s="55"/>
       <c r="BC5" s="5"/>
-      <c r="BD5" s="60">
+      <c r="BD5" s="59">
         <v>20</v>
       </c>
-      <c r="BE5" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF5" s="63" t="s">
-        <v>115</v>
+      <c r="BE5" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF5" s="62" t="s">
+        <v>124</v>
       </c>
       <c r="BG5" s="5"/>
       <c r="BH5" s="5"/>
@@ -4149,27 +3906,27 @@
       <c r="BK5" s="16">
         <v>9.2</v>
       </c>
-      <c r="BL5" s="39">
+      <c r="BL5" s="38">
         <f t="shared" si="0"/>
         <v>0.671043034281546</v>
       </c>
       <c r="BM5" s="5"/>
-      <c r="BN5" s="66">
+      <c r="BN5" s="65">
         <v>44578</v>
       </c>
     </row>
     <row r="6" ht="60" spans="1:66">
       <c r="A6" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5">
         <v>600976</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="15">
         <v>0.4423</v>
@@ -4197,22 +3954,22 @@
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
       <c r="X6" s="29"/>
       <c r="Y6" s="17">
         <v>0.5809</v>
       </c>
-      <c r="Z6" s="38">
+      <c r="Z6" s="37">
         <v>0.6068</v>
       </c>
-      <c r="AA6" s="38">
+      <c r="AA6" s="37">
         <v>0.6104</v>
       </c>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
       <c r="AE6" s="15"/>
       <c r="AF6" s="15"/>
       <c r="AG6" s="15"/>
@@ -4221,37 +3978,37 @@
       <c r="AJ6" s="15"/>
       <c r="AK6" s="15"/>
       <c r="AL6" s="15"/>
-      <c r="AM6" s="37"/>
+      <c r="AM6" s="36"/>
       <c r="AN6" s="29"/>
       <c r="AO6" s="29"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="46">
+      <c r="AP6" s="31"/>
+      <c r="AQ6" s="45">
         <v>38096</v>
       </c>
-      <c r="AR6" s="37"/>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="50"/>
-      <c r="AU6" s="50">
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49">
         <v>1.534</v>
       </c>
-      <c r="AV6" s="50">
+      <c r="AV6" s="49">
         <v>1.522</v>
       </c>
-      <c r="AW6" s="50"/>
-      <c r="AX6" s="56"/>
-      <c r="AY6" s="56"/>
-      <c r="AZ6" s="56"/>
-      <c r="BA6" s="56"/>
-      <c r="BB6" s="56"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="55"/>
+      <c r="AY6" s="55"/>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="55"/>
+      <c r="BB6" s="55"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="5">
         <v>15</v>
       </c>
-      <c r="BE6" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF6" s="63" t="s">
-        <v>118</v>
+      <c r="BE6" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF6" s="62" t="s">
+        <v>127</v>
       </c>
       <c r="BG6" s="5"/>
       <c r="BH6" s="5"/>
@@ -4260,27 +4017,27 @@
       <c r="BK6" s="16">
         <v>2.57</v>
       </c>
-      <c r="BL6" s="36">
+      <c r="BL6" s="35">
         <f t="shared" si="0"/>
         <v>1.67535853976532</v>
       </c>
       <c r="BM6" s="5"/>
-      <c r="BN6" s="66">
+      <c r="BN6" s="65">
         <v>44578</v>
       </c>
     </row>
-    <row r="7" ht="88" spans="1:66">
+    <row r="7" ht="74" spans="1:66">
       <c r="A7" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B7" s="5">
         <v>603867</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E7" s="15">
         <v>0.3881</v>
@@ -4308,9 +4065,9 @@
       <c r="R7" s="24"/>
       <c r="S7" s="24"/>
       <c r="T7" s="24"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
       <c r="X7" s="29"/>
       <c r="Y7" s="17">
         <v>0.9186</v>
@@ -4321,9 +4078,9 @@
       <c r="AA7" s="17">
         <v>0.2326</v>
       </c>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
       <c r="AE7" s="15"/>
       <c r="AF7" s="15"/>
       <c r="AG7" s="15"/>
@@ -4332,37 +4089,37 @@
       <c r="AJ7" s="15"/>
       <c r="AK7" s="15"/>
       <c r="AL7" s="15"/>
-      <c r="AM7" s="37"/>
+      <c r="AM7" s="36"/>
       <c r="AN7" s="29"/>
       <c r="AO7" s="29"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="46">
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="45">
         <v>43643</v>
       </c>
-      <c r="AR7" s="37"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50">
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49">
         <v>1.414</v>
       </c>
-      <c r="AV7" s="50">
+      <c r="AV7" s="49">
         <v>0.8566</v>
       </c>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="56"/>
-      <c r="AY7" s="56"/>
-      <c r="AZ7" s="56"/>
-      <c r="BA7" s="56"/>
-      <c r="BB7" s="56"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="55"/>
+      <c r="AY7" s="55"/>
+      <c r="AZ7" s="55"/>
+      <c r="BA7" s="55"/>
+      <c r="BB7" s="55"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="5">
         <v>2</v>
       </c>
-      <c r="BE7" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="BF7" s="62" t="s">
-        <v>123</v>
+      <c r="BE7" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF7" s="61" t="s">
+        <v>130</v>
       </c>
       <c r="BG7" s="5"/>
       <c r="BH7" s="5"/>
@@ -4371,14 +4128,14 @@
       <c r="BK7" s="16">
         <v>1.1</v>
       </c>
-      <c r="BL7" s="36">
+      <c r="BL7" s="35">
         <f t="shared" si="0"/>
         <v>0.777934936350778</v>
       </c>
-      <c r="BM7" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN7" s="66">
+      <c r="BM7" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN7" s="65">
         <v>44578</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/牛股档案库.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/牛股档案库.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>股票代码</t>
   </si>
@@ -258,6 +258,9 @@
   <si>
     <t>股本回报率
 (至少大于17%)</t>
+  </si>
+  <si>
+    <t>买入后到最高点涨幅</t>
   </si>
   <si>
     <r>
@@ -938,15 +941,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1078,9 +1081,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,6 +1098,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,53 +1125,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1168,26 +1141,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1208,8 +1166,53 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,7 +1224,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1266,13 +1269,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,13 +1317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,19 +1347,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,7 +1383,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,7 +1413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,85 +1437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,13 +1449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,6 +1550,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1568,20 +1574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,17 +1615,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1646,152 +1643,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1822,10 +1819,10 @@
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1834,132 +1831,132 @@
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1987,11 +1984,17 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1999,13 +2002,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2020,34 +2020,31 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2056,13 +2053,13 @@
     <xf numFmtId="10" fontId="14" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,12 +2077,6 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="14" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2104,7 +2095,7 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2113,13 +2104,13 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2469,91 +2460,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
       <c r="AJ1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="67" t="s">
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="103" t="s">
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" s="104" t="s">
+      <c r="AQ1" s="102" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="77" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="81" t="s">
@@ -2574,34 +2565,34 @@
       <c r="P2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
       <c r="AJ2" s="89" t="s">
         <v>23</v>
       </c>
       <c r="AK2" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="AL2" s="101" t="s">
+      <c r="AL2" s="99" t="s">
         <v>25</v>
       </c>
       <c r="AM2" s="89" t="s">
@@ -2613,20 +2604,20 @@
       <c r="AO2" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="104"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="102"/>
     </row>
     <row r="3" ht="71" spans="1:43">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="81"/>
       <c r="L3" s="82"/>
       <c r="M3" s="81"/>
@@ -2692,49 +2683,49 @@
       </c>
       <c r="AJ3" s="89"/>
       <c r="AK3" s="89"/>
-      <c r="AL3" s="102"/>
+      <c r="AL3" s="100"/>
       <c r="AM3" s="89"/>
       <c r="AN3" s="89"/>
       <c r="AO3" s="89"/>
-      <c r="AP3" s="103"/>
-      <c r="AQ3" s="104"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="102"/>
     </row>
     <row r="4" ht="53" spans="1:43">
-      <c r="A4" s="69">
+      <c r="A4" s="71">
         <v>600085</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="72">
         <v>0.671</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="77">
+      <c r="E4" s="71"/>
+      <c r="F4" s="78">
         <v>31.92</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="78">
         <v>32.63</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="78">
         <v>33.17</v>
       </c>
       <c r="I4" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="77">
+      <c r="J4" s="78">
         <v>33.73</v>
       </c>
-      <c r="K4" s="77">
+      <c r="K4" s="78">
         <v>22.98</v>
       </c>
-      <c r="L4" s="77">
+      <c r="L4" s="78">
         <v>44.42</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="87">
         <f>(J4-K4)/K4</f>
         <v>0.467798085291558</v>
@@ -2744,25 +2735,25 @@
         <v>0.240657361548852</v>
       </c>
       <c r="P4" s="88"/>
-      <c r="Q4" s="77">
+      <c r="Q4" s="78">
         <v>30.78</v>
       </c>
-      <c r="R4" s="77">
+      <c r="R4" s="78">
         <v>35</v>
       </c>
-      <c r="S4" s="77">
+      <c r="S4" s="78">
         <v>31.27</v>
       </c>
-      <c r="T4" s="77">
+      <c r="T4" s="78">
         <v>34.82</v>
       </c>
-      <c r="U4" s="77">
+      <c r="U4" s="78">
         <v>32.12</v>
       </c>
-      <c r="V4" s="77">
+      <c r="V4" s="78">
         <v>34.11</v>
       </c>
-      <c r="W4" s="77">
+      <c r="W4" s="78">
         <v>32.53</v>
       </c>
       <c r="X4" s="88"/>
@@ -2796,34 +2787,34 @@
       <c r="AI4" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="96" t="s">
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="105">
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="103">
         <v>44517</v>
       </c>
     </row>
     <row r="5" ht="71" spans="1:43">
-      <c r="A5" s="69">
+      <c r="A5" s="71">
         <v>603867</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="72">
         <v>0.777</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="77">
+      <c r="E5" s="71"/>
+      <c r="F5" s="78">
         <v>28.2</v>
       </c>
       <c r="G5" s="78">
@@ -2838,13 +2829,13 @@
       <c r="J5" s="78">
         <v>32.57</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="78">
         <v>20.61</v>
       </c>
-      <c r="L5" s="77">
+      <c r="L5" s="78">
         <v>41.5</v>
       </c>
-      <c r="M5" s="69"/>
+      <c r="M5" s="71"/>
       <c r="N5" s="87">
         <f>(J5-K5)/K5</f>
         <v>0.58030082484231</v>
@@ -2853,23 +2844,23 @@
         <f>(L5-J5)/L5</f>
         <v>0.215180722891566</v>
       </c>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="77">
+      <c r="P5" s="71"/>
+      <c r="Q5" s="78">
         <v>28.42</v>
       </c>
-      <c r="R5" s="77">
+      <c r="R5" s="78">
         <v>34.7</v>
       </c>
-      <c r="S5" s="77">
+      <c r="S5" s="78">
         <v>29</v>
       </c>
-      <c r="T5" s="77">
+      <c r="T5" s="78">
         <v>35.27</v>
       </c>
-      <c r="U5" s="77">
+      <c r="U5" s="78">
         <v>30.89</v>
       </c>
-      <c r="V5" s="77"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="88"/>
       <c r="X5" s="88"/>
       <c r="Y5" s="88"/>
@@ -2899,36 +2890,36 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AH5" s="88"/>
-      <c r="AI5" s="97" t="s">
+      <c r="AI5" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="96" t="s">
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="105">
+      <c r="AM5" s="71"/>
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="71"/>
+      <c r="AP5" s="71"/>
+      <c r="AQ5" s="103">
         <v>44519</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:43">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="75">
         <v>1.69</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="75"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="79">
         <v>44.14</v>
       </c>
@@ -2988,7 +2979,7 @@
       <c r="Y6" s="84"/>
       <c r="Z6" s="84"/>
       <c r="AA6" s="84"/>
-      <c r="AB6" s="75" t="s">
+      <c r="AB6" s="76" t="s">
         <v>61</v>
       </c>
       <c r="AC6" s="87">
@@ -3012,46 +3003,46 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AH6" s="87"/>
-      <c r="AI6" s="75" t="s">
+      <c r="AI6" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="AJ6" s="75" t="s">
+      <c r="AJ6" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="AK6" s="75" t="s">
+      <c r="AK6" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="AL6" s="75"/>
-      <c r="AM6" s="75" t="s">
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="AN6" s="75" t="s">
+      <c r="AN6" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="AO6" s="75" t="s">
+      <c r="AO6" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="AP6" s="106" t="s">
+      <c r="AP6" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="AQ6" s="107">
+      <c r="AQ6" s="105">
         <v>44547</v>
       </c>
     </row>
     <row r="7" ht="53" spans="1:43">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="75">
         <v>10.68</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="75">
+      <c r="E7" s="76">
         <v>5</v>
       </c>
       <c r="F7" s="80">
@@ -3132,8 +3123,8 @@
         <f>(V7-W7)/V7</f>
         <v>0.0578629291500579</v>
       </c>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
       <c r="AI7" s="91" t="s">
         <v>52</v>
       </c>
@@ -3153,10 +3144,10 @@
       <c r="AO7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="AP7" s="108" t="s">
+      <c r="AP7" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="AQ7" s="109">
+      <c r="AQ7" s="107">
         <v>44571</v>
       </c>
     </row>
@@ -3200,14 +3191,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BM7"/>
+  <dimension ref="A1:BN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="BI4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="BP2" sqref="BP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -3234,14 +3225,19 @@
     <col min="40" max="40" width="9.28571428571429"/>
     <col min="41" max="41" width="11.8928571428571" customWidth="1"/>
     <col min="42" max="42" width="12.0446428571429" customWidth="1"/>
-    <col min="56" max="56" width="16.6607142857143" customWidth="1"/>
+    <col min="55" max="55" width="17.2589285714286" customWidth="1"/>
+    <col min="56" max="56" width="27.0803571428571" customWidth="1"/>
     <col min="57" max="57" width="17.4107142857143" customWidth="1"/>
+    <col min="58" max="58" width="15.9196428571429" customWidth="1"/>
+    <col min="60" max="60" width="13.9821428571429" customWidth="1"/>
+    <col min="61" max="61" width="17.2589285714286" customWidth="1"/>
     <col min="63" max="63" width="12.6428571428571" customWidth="1"/>
     <col min="64" max="64" width="22.6160714285714" customWidth="1"/>
     <col min="65" max="65" width="11.0089285714286" customWidth="1"/>
+    <col min="66" max="66" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:65">
+    <row r="1" ht="25" customHeight="1" spans="1:66">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3329,20 +3325,23 @@
       <c r="BM1" s="65" t="s">
         <v>10</v>
       </c>
+      <c r="BN1" s="66" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" ht="46" customHeight="1" spans="1:65">
+    <row r="2" ht="46" customHeight="1" spans="1:66">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
@@ -3359,12 +3358,12 @@
       <c r="V2" s="18"/>
       <c r="W2" s="27"/>
       <c r="X2" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
       <c r="AA2" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="26"/>
       <c r="AC2" s="26"/>
@@ -3385,16 +3384,16 @@
       <c r="AR2" s="33"/>
       <c r="AS2" s="33"/>
       <c r="AT2" s="43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU2" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV2" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW2" s="52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AX2" s="53"/>
       <c r="AY2" s="53"/>
@@ -3402,7 +3401,7 @@
       <c r="BA2" s="53"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
@@ -3413,188 +3412,190 @@
       <c r="BJ2" s="11"/>
       <c r="BK2" s="11"/>
       <c r="BL2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BM2" s="65"/>
+      <c r="BN2" s="66"/>
     </row>
-    <row r="3" ht="64" customHeight="1" spans="1:65">
+    <row r="3" ht="64" customHeight="1" spans="1:66">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="10"/>
       <c r="F3" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="Y3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="Z3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="AA3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="AB3" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="AC3" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="19" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="AF3" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="AG3" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" s="19" t="s">
+      <c r="AH3" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="AJ3" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="AK3" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="AL3" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="V3" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="W3" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA3" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB3" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC3" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE3" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF3" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG3" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH3" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI3" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ3" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL3" s="34" t="s">
-        <v>92</v>
-      </c>
       <c r="AM3" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AN3" s="29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AO3" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AP3" s="42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AQ3" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AR3" s="43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AS3" s="43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AT3" s="43"/>
       <c r="AU3" s="43"/>
       <c r="AV3" s="50"/>
       <c r="AW3" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AX3" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AY3" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AZ3" s="53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BA3" s="53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BC3" s="56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BD3" s="56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BE3" s="61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BF3" s="56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BH3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BI3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BI3" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="BJ3" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BK3" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BL3" s="1"/>
       <c r="BM3" s="65"/>
+      <c r="BN3" s="66"/>
     </row>
-    <row r="4" ht="60" spans="1:65">
+    <row r="4" ht="60" spans="1:66">
       <c r="A4" s="4">
         <v>600085</v>
       </c>
@@ -3681,10 +3682,10 @@
         <v>20</v>
       </c>
       <c r="BD4" s="58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BE4" s="58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BF4" s="4"/>
       <c r="BG4" s="4"/>
@@ -3698,11 +3699,12 @@
         <v>0.671043034281546</v>
       </c>
       <c r="BL4" s="4"/>
-      <c r="BM4" s="66">
+      <c r="BM4" s="67">
         <v>44578</v>
       </c>
+      <c r="BN4" s="68"/>
     </row>
-    <row r="5" ht="74" spans="1:65">
+    <row r="5" ht="74" spans="1:66">
       <c r="A5" s="4">
         <v>603867</v>
       </c>
@@ -3789,10 +3791,10 @@
         <v>2</v>
       </c>
       <c r="BD5" s="58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BE5" s="62" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
@@ -3806,13 +3808,14 @@
         <v>0.777934936350778</v>
       </c>
       <c r="BL5" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="BM5" s="66">
+        <v>119</v>
+      </c>
+      <c r="BM5" s="67">
         <v>44578</v>
       </c>
+      <c r="BN5" s="68"/>
     </row>
-    <row r="6" ht="60" spans="1:65">
+    <row r="6" ht="60" spans="1:66">
       <c r="A6" s="4">
         <v>600976</v>
       </c>
@@ -3899,10 +3902,10 @@
         <v>15</v>
       </c>
       <c r="BD6" s="58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BE6" s="58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BF6" s="4"/>
       <c r="BG6" s="4"/>
@@ -3916,13 +3919,14 @@
         <v>1.67535853976532</v>
       </c>
       <c r="BL6" s="4"/>
-      <c r="BM6" s="66">
+      <c r="BM6" s="67">
         <v>44578</v>
       </c>
+      <c r="BN6" s="68"/>
     </row>
-    <row r="7" ht="90" customHeight="1" spans="1:65">
-      <c r="A7" s="110" t="s">
-        <v>121</v>
+    <row r="7" ht="90" customHeight="1" spans="1:66">
+      <c r="A7" s="108" t="s">
+        <v>122</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>65</v>
@@ -4034,7 +4038,7 @@
         <v>3.4657</v>
       </c>
       <c r="AM7" s="40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AN7" s="41">
         <f>(AE7+AF7+AG7+AH7)/4</f>
@@ -4084,13 +4088,13 @@
         <v>1</v>
       </c>
       <c r="BD7" s="60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BE7" s="62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BF7" s="62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BG7" s="60"/>
       <c r="BH7" s="60"/>
@@ -4103,14 +4107,15 @@
         <v>9.86653956148713</v>
       </c>
       <c r="BL7" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="BM7" s="66">
+        <v>127</v>
+      </c>
+      <c r="BM7" s="67">
         <v>44578</v>
       </c>
+      <c r="BN7" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="F1:W1"/>
     <mergeCell ref="X1:AO1"/>
     <mergeCell ref="AT1:BI1"/>
@@ -4130,6 +4135,7 @@
     <mergeCell ref="AV2:AV3"/>
     <mergeCell ref="BL2:BL3"/>
     <mergeCell ref="BM1:BM3"/>
+    <mergeCell ref="BN1:BN3"/>
     <mergeCell ref="AP1:AS2"/>
     <mergeCell ref="BJ1:BK2"/>
   </mergeCells>

--- a/我的创作/股票/技术投资/SEAP交易系统/牛股档案库.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/牛股档案库.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>股票代码</t>
   </si>
@@ -590,6 +590,28 @@
   </si>
   <si>
     <r>
+      <t>适度进场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（机构持有股份占比变化不大）</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="12"/>
         <rFont val="方正书宋_GBK"/>
@@ -901,39 +923,7 @@
     <t>公司回购</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>适度进场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica Neue Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>利润增长下滑减速，销售额增长出现小幅回升，持有机构数量大幅下滑，但机构持有股份占比持续增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica Neue Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>（机构持有股份占比变化不大）</t>
   </si>
 </sst>
 </file>
@@ -3194,11 +3184,11 @@
   <dimension ref="A1:BN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BI4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="BE4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BP2" sqref="BP2"/>
+      <selection pane="bottomRight" activeCell="BL5" sqref="BL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -3698,7 +3688,9 @@
         <f>BJ4/AT4</f>
         <v>0.671043034281546</v>
       </c>
-      <c r="BL4" s="4"/>
+      <c r="BL4" s="63" t="s">
+        <v>117</v>
+      </c>
       <c r="BM4" s="67">
         <v>44578</v>
       </c>
@@ -3791,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="BD5" s="58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BE5" s="62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
@@ -3808,7 +3800,7 @@
         <v>0.777934936350778</v>
       </c>
       <c r="BL5" s="63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BM5" s="67">
         <v>44578</v>
@@ -3902,10 +3894,10 @@
         <v>15</v>
       </c>
       <c r="BD6" s="58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BE6" s="58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BF6" s="4"/>
       <c r="BG6" s="4"/>
@@ -3918,7 +3910,9 @@
         <f>BJ6/AT6</f>
         <v>1.67535853976532</v>
       </c>
-      <c r="BL6" s="4"/>
+      <c r="BL6" s="63" t="s">
+        <v>117</v>
+      </c>
       <c r="BM6" s="67">
         <v>44578</v>
       </c>
@@ -3926,7 +3920,7 @@
     </row>
     <row r="7" ht="90" customHeight="1" spans="1:66">
       <c r="A7" s="108" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>65</v>
@@ -4038,7 +4032,7 @@
         <v>3.4657</v>
       </c>
       <c r="AM7" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN7" s="41">
         <f>(AE7+AF7+AG7+AH7)/4</f>
@@ -4088,13 +4082,13 @@
         <v>1</v>
       </c>
       <c r="BD7" s="60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BE7" s="62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BF7" s="62" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BG7" s="60"/>
       <c r="BH7" s="60"/>
@@ -4107,7 +4101,7 @@
         <v>9.86653956148713</v>
       </c>
       <c r="BL7" s="64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BM7" s="67">
         <v>44578</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/牛股档案库.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/牛股档案库.xlsx
@@ -3184,11 +3184,11 @@
   <dimension ref="A1:BN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BE4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="BB4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BL5" sqref="BL5"/>
+      <selection pane="bottomRight" activeCell="BC6" sqref="BC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
